--- a/secure/26P-Yasmina.xlsx
+++ b/secure/26P-Yasmina.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26P-Yasmina-945828</t>
+    <t>26P-Yasmina-987944</t>
   </si>
   <si>
-    <t>26P-Yasmina-815854</t>
+    <t>26P-Yasmina-944099</t>
   </si>
   <si>
-    <t>26P-Yasmina-141135</t>
+    <t>26P-Yasmina-811402</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="Fb2d72c0"/>
+        <fgColor rgb="F877fef7"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:OK503"/>
+  <dimension ref="A1:SW503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -721,11 +721,14 @@
       </c>
       <c r="M45" s="4"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:517" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>-0.824</v>
       </c>
       <c r="M46" s="4"/>
+      <c r="SW46" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
@@ -1591,14 +1594,11 @@
       </c>
       <c r="M190" s="4"/>
     </row>
-    <row r="191" spans="1:342" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>-0.244</v>
       </c>
       <c r="M191" s="4"/>
-      <c r="MD191" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
@@ -1756,11 +1756,14 @@
       </c>
       <c r="M217" s="4"/>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:438" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>-0.136</v>
       </c>
       <c r="M218" s="4"/>
+      <c r="PV218" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
@@ -2194,14 +2197,11 @@
       </c>
       <c r="M290" s="4"/>
     </row>
-    <row r="291" spans="1:193" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>0.156</v>
       </c>
       <c r="M291" s="4"/>
-      <c r="GK291" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
@@ -2623,14 +2623,11 @@
       </c>
       <c r="M361" s="4"/>
     </row>
-    <row r="362" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
         <v>0.44</v>
       </c>
       <c r="M362" s="4"/>
-      <c r="OK362" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
@@ -2710,11 +2707,14 @@
       </c>
       <c r="M375" s="4"/>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:220" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
         <v>0.496</v>
       </c>
       <c r="M376" s="4"/>
+      <c r="HL376" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
